--- a/branches/fixes/StructureDefinition-HIV-lab-order.xlsx
+++ b/branches/fixes/StructureDefinition-HIV-lab-order.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-08T14:17:23+00:00</t>
+    <t>2023-03-08T14:35:35+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/fixes/StructureDefinition-HIV-lab-order.xlsx
+++ b/branches/fixes/StructureDefinition-HIV-lab-order.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-08T14:35:35+00:00</t>
+    <t>2023-03-08T14:37:17+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -8258,10 +8258,10 @@
       </c>
       <c r="E53" s="2"/>
       <c r="F53" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="G53" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="H53" t="s" s="2">
         <v>81</v>
@@ -8490,10 +8490,10 @@
       </c>
       <c r="E55" s="2"/>
       <c r="F55" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="G55" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="H55" t="s" s="2">
         <v>81</v>

--- a/branches/fixes/StructureDefinition-HIV-lab-order.xlsx
+++ b/branches/fixes/StructureDefinition-HIV-lab-order.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-08T14:37:17+00:00</t>
+    <t>2023-03-08T15:08:56+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -8258,10 +8258,10 @@
       </c>
       <c r="E53" s="2"/>
       <c r="F53" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="G53" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="H53" t="s" s="2">
         <v>81</v>
@@ -8490,10 +8490,10 @@
       </c>
       <c r="E55" s="2"/>
       <c r="F55" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="G55" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="H55" t="s" s="2">
         <v>81</v>

--- a/branches/fixes/StructureDefinition-HIV-lab-order.xlsx
+++ b/branches/fixes/StructureDefinition-HIV-lab-order.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-08T15:08:56+00:00</t>
+    <t>2023-03-08T15:33:34+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -8258,10 +8258,10 @@
       </c>
       <c r="E53" s="2"/>
       <c r="F53" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="G53" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="H53" t="s" s="2">
         <v>81</v>
@@ -8490,10 +8490,10 @@
       </c>
       <c r="E55" s="2"/>
       <c r="F55" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="G55" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="H55" t="s" s="2">
         <v>81</v>

--- a/branches/fixes/StructureDefinition-HIV-lab-order.xlsx
+++ b/branches/fixes/StructureDefinition-HIV-lab-order.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-08T15:33:34+00:00</t>
+    <t>2023-03-08T15:41:32+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/fixes/StructureDefinition-HIV-lab-order.xlsx
+++ b/branches/fixes/StructureDefinition-HIV-lab-order.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-08T15:41:32+00:00</t>
+    <t>2023-03-09T10:46:46+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/fixes/StructureDefinition-HIV-lab-order.xlsx
+++ b/branches/fixes/StructureDefinition-HIV-lab-order.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-09T10:46:46+00:00</t>
+    <t>2023-03-09T10:56:27+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
